--- a/data/wjj/pj1/超人/超人_1.xlsx
+++ b/data/wjj/pj1/超人/超人_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwe\work\data\wwe\wjj\pj1\超人\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwe\work\py\DataAnalysis\data\wjj\pj1\超人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C3957515-60B1-4648-BF91-BDD4542C1E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6988EC-BE9E-465C-B701-A875FE3C62AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="data" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr dataExtractLoad="1"/>
 </workbook>
 </file>
 
@@ -42,9 +41,6 @@
   </si>
   <si>
     <t>借款期限</t>
-  </si>
-  <si>
-    <t>转入时间</t>
   </si>
   <si>
     <t>付款账号</t>
@@ -121,16 +117,19 @@
   <si>
     <t>财付通支付科技有限公司99......xx银联代付</t>
   </si>
+  <si>
+    <t>转入日期</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    <numFmt numFmtId="169" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -269,17 +268,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -288,10 +287,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -304,17 +303,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -323,33 +322,33 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,27 +356,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -693,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -705,6 +704,7 @@
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="3" max="3" width="37.6328125" customWidth="1"/>
     <col min="5" max="5" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -743,19 +743,19 @@
         <v>6</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="27" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16">
@@ -766,10 +766,10 @@
         <v>0.82708333333333295</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="17">
         <v>13000</v>
@@ -790,10 +790,10 @@
         <v>0.87152777777777801</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="17">
         <v>22000</v>
@@ -814,10 +814,10 @@
         <v>0.87152777777777801</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="17">
         <v>5000</v>
@@ -843,10 +843,10 @@
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
       <c r="H6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J6" s="17">
         <v>16000</v>
@@ -862,10 +862,10 @@
         <v>0.92638888888888904</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="17">
         <v>10000</v>
@@ -886,10 +886,10 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="17">
         <v>12000</v>
@@ -910,10 +910,10 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="E9" s="17">
         <v>10000</v>
@@ -939,10 +939,10 @@
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
       <c r="H10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J10" s="17">
         <v>12600</v>
@@ -963,10 +963,10 @@
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
       <c r="H11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J11" s="17">
         <v>13800</v>
@@ -982,10 +982,10 @@
         <v>0.80277777777777803</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="17">
         <v>5000</v>
@@ -1006,10 +1006,10 @@
         <v>0.90347222222222201</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="17">
         <v>18000</v>
@@ -1030,7 +1030,7 @@
         <v>0.68541666666666701</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="17">
@@ -1052,7 +1052,7 @@
         <v>0.93194444444444402</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="17">
@@ -1074,7 +1074,7 @@
         <v>0.83402777777777803</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="17">
@@ -1096,7 +1096,7 @@
         <v>0.79791666666666705</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="17">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="17">
@@ -1141,10 +1141,10 @@
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
       <c r="H19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J19" s="17">
         <v>500</v>
@@ -1160,7 +1160,7 @@
         <v>0.874305555555556</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="17">
@@ -1182,7 +1182,7 @@
         <v>0.40625</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="17">
@@ -1209,10 +1209,10 @@
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
       <c r="H22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J22" s="17">
         <v>1500</v>
@@ -1228,7 +1228,7 @@
         <v>0.72291666666666698</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="17">
@@ -1255,10 +1255,10 @@
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
       <c r="H24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J24" s="17">
         <v>21900</v>
@@ -1274,7 +1274,7 @@
         <v>0.54027777777777797</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="17">
@@ -1296,7 +1296,7 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="17">
@@ -1318,7 +1318,7 @@
         <v>0.74097222222222203</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="17">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="17">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="17">
@@ -1380,7 +1380,7 @@
         <v>0.81944444444444398</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="17">
@@ -1402,7 +1402,7 @@
         <v>0.84791666666666698</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="17">
@@ -1424,7 +1424,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="17">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="17">
@@ -1469,10 +1469,10 @@
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
       <c r="H34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J34" s="17">
         <v>700</v>
@@ -1488,7 +1488,7 @@
         <v>0.55277777777777803</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="17">
@@ -1515,10 +1515,10 @@
       <c r="F36" s="18"/>
       <c r="G36" s="19"/>
       <c r="H36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J36" s="17">
         <v>28000</v>
@@ -1534,7 +1534,7 @@
         <v>0.60486111111111096</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="17">
@@ -1556,7 +1556,7 @@
         <v>0.71111111111111103</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="17">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="17">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="17">
@@ -1618,7 +1618,7 @@
         <v>0.625694444444444</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="17">
@@ -1640,7 +1640,7 @@
         <v>0.70347222222222205</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="17">
@@ -1667,10 +1667,10 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
       <c r="H43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J43" s="17">
         <v>24800</v>
@@ -1686,7 +1686,7 @@
         <v>0.47083333333333299</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="17">
@@ -1708,7 +1708,7 @@
         <v>0.57430555555555596</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="17">
@@ -1730,7 +1730,7 @@
         <v>0.80972222222222201</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="17">
@@ -1752,7 +1752,7 @@
         <v>0.59861111111111098</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="17">
@@ -1779,10 +1779,10 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
       <c r="H48" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J48" s="17">
         <v>1500</v>
@@ -1798,7 +1798,7 @@
         <v>0.70277777777777795</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="17">
@@ -1825,10 +1825,10 @@
       <c r="F50" s="18"/>
       <c r="G50" s="19"/>
       <c r="H50" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J50" s="17">
         <v>3000</v>
@@ -1844,7 +1844,7 @@
         <v>0.68333333333333302</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="17">
@@ -1871,10 +1871,10 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
       <c r="H52" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J52" s="17">
         <v>27600</v>
@@ -1890,7 +1890,7 @@
         <v>0.55486111111111103</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="17">
@@ -1912,7 +1912,7 @@
         <v>0.67013888888888895</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="17">
@@ -1934,7 +1934,7 @@
         <v>0.90069444444444402</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="17">
@@ -1956,7 +1956,7 @@
         <v>0.81041666666666701</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="17">
@@ -1983,16 +1983,16 @@
       <c r="F57" s="18"/>
       <c r="G57" s="24"/>
       <c r="H57" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J57" s="17">
         <v>32000</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L57" s="33"/>
     </row>
@@ -2009,10 +2009,10 @@
       <c r="F58" s="18"/>
       <c r="G58" s="19"/>
       <c r="H58" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J58" s="17">
         <v>30000</v>
@@ -2028,7 +2028,7 @@
         <v>0.69513888888888897</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="17">
@@ -2055,16 +2055,16 @@
       <c r="F60" s="18"/>
       <c r="G60" s="24"/>
       <c r="H60" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I60" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J60" s="17">
         <v>46800</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L60" s="33"/>
     </row>
@@ -2076,7 +2076,7 @@
         <v>0.74097222222222203</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="17">
@@ -2098,7 +2098,7 @@
         <v>0.52986111111111101</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="17">
@@ -2120,7 +2120,7 @@
         <v>0.51875000000000004</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="17">
@@ -2142,7 +2142,7 @@
         <v>0.74236111111111103</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="22"/>
       <c r="E64" s="17">
@@ -2169,10 +2169,10 @@
       <c r="F65" s="18"/>
       <c r="G65" s="19"/>
       <c r="H65" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J65" s="17">
         <v>6000</v>
@@ -2188,7 +2188,7 @@
         <v>0.86041666666666705</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="17">
@@ -2210,7 +2210,7 @@
         <v>0.82361111111111096</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="17">
@@ -2232,7 +2232,7 @@
         <v>0.82361111111111096</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="17">
@@ -2259,16 +2259,16 @@
       <c r="F69" s="18"/>
       <c r="G69" s="19"/>
       <c r="H69" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J69" s="17">
         <v>17500</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L69" s="33"/>
     </row>
@@ -2280,7 +2280,7 @@
         <v>0.89583333333333304</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="17">
@@ -2302,7 +2302,7 @@
         <v>0.89583333333333304</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="22"/>
       <c r="E71" s="17">
@@ -2329,10 +2329,10 @@
       <c r="F72" s="18"/>
       <c r="G72" s="19"/>
       <c r="H72" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J72" s="17">
         <v>19600</v>
@@ -2348,7 +2348,7 @@
         <v>0.68194444444444402</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="17">
@@ -2375,16 +2375,16 @@
       <c r="F74" s="18"/>
       <c r="G74" s="19"/>
       <c r="H74" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J74" s="17">
         <v>39500</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L74" s="33"/>
     </row>
@@ -2396,7 +2396,7 @@
         <v>0.63680555555555596</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="17">
@@ -2423,10 +2423,10 @@
       <c r="F76" s="18"/>
       <c r="G76" s="19"/>
       <c r="H76" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J76" s="17">
         <v>5000</v>
@@ -2442,7 +2442,7 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="17">
@@ -2469,7 +2469,7 @@
       <c r="F78" s="18"/>
       <c r="G78" s="19"/>
       <c r="H78" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I78" s="22"/>
       <c r="J78" s="17">
@@ -2491,7 +2491,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="19"/>
       <c r="H79" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="17">
@@ -2508,7 +2508,7 @@
         <v>0.58888888888888902</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="17">
@@ -2520,7 +2520,7 @@
       <c r="I80" s="19"/>
       <c r="J80" s="17"/>
       <c r="K80" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L80" s="34"/>
     </row>
@@ -2532,7 +2532,7 @@
         <v>0.58541666666666703</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="17">
@@ -2551,7 +2551,7 @@
         <v>45042</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="22"/>
@@ -2559,7 +2559,7 @@
       <c r="F82" s="18"/>
       <c r="G82" s="19"/>
       <c r="H82" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="22"/>
       <c r="J82" s="17">
@@ -2576,7 +2576,7 @@
         <v>0.66180555555555598</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="17">
@@ -2603,7 +2603,7 @@
       <c r="F84" s="18"/>
       <c r="G84" s="19"/>
       <c r="H84" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I84" s="22"/>
       <c r="J84" s="17">
@@ -2625,7 +2625,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="19"/>
       <c r="H85" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I85" s="22"/>
       <c r="J85" s="17">
@@ -2642,7 +2642,7 @@
         <v>0.80416666666666703</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="17">
@@ -2669,16 +2669,16 @@
       <c r="F87" s="18"/>
       <c r="G87" s="19"/>
       <c r="H87" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I87" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J87" s="17">
         <v>38000</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L87" s="33"/>
     </row>
@@ -2695,7 +2695,7 @@
       <c r="F88" s="18"/>
       <c r="G88" s="19"/>
       <c r="H88" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I88" s="22"/>
       <c r="J88" s="17">
@@ -2717,7 +2717,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="19"/>
       <c r="H89" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I89" s="22"/>
       <c r="J89" s="17">
@@ -2734,7 +2734,7 @@
         <v>0.78611111111111098</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="17">
@@ -2756,7 +2756,7 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="17">
@@ -2778,7 +2778,7 @@
         <v>0.88402777777777797</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="17">
@@ -2800,7 +2800,7 @@
         <v>0.50347222222222199</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="17">
@@ -2822,7 +2822,7 @@
         <v>0.80347222222222203</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="17">
@@ -2849,10 +2849,10 @@
       <c r="F95" s="18"/>
       <c r="G95" s="19"/>
       <c r="H95" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I95" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J95" s="17">
         <v>6000</v>
@@ -2873,10 +2873,10 @@
       <c r="F96" s="18"/>
       <c r="G96" s="19"/>
       <c r="H96" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I96" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J96" s="17">
         <v>10000</v>
@@ -2892,7 +2892,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="17">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="17">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="17">
@@ -2959,10 +2959,10 @@
       <c r="F100" s="18"/>
       <c r="G100" s="19"/>
       <c r="H100" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I100" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J100" s="17">
         <v>30000</v>
@@ -2978,7 +2978,7 @@
         <v>0.80694444444444402</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="17">
@@ -3005,10 +3005,10 @@
       <c r="F102" s="18"/>
       <c r="G102" s="19"/>
       <c r="H102" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I102" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J102" s="17">
         <v>10166</v>
@@ -3029,10 +3029,10 @@
       <c r="F103" s="18"/>
       <c r="G103" s="19"/>
       <c r="H103" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I103" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J103" s="17">
         <v>2000</v>
@@ -3048,7 +3048,7 @@
         <v>0.76597222222222205</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="17">
@@ -3075,16 +3075,16 @@
       <c r="F105" s="18"/>
       <c r="G105" s="19"/>
       <c r="H105" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I105" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J105" s="17">
         <v>35000</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L105" s="33"/>
     </row>
@@ -3096,7 +3096,7 @@
         <v>0.94374999999999998</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="17">
@@ -3123,16 +3123,16 @@
       <c r="F107" s="18"/>
       <c r="G107" s="19"/>
       <c r="H107" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I107" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J107" s="17">
         <v>30000</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L107" s="33"/>
     </row>
@@ -3144,7 +3144,7 @@
         <v>0.69652777777777797</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" s="22"/>
       <c r="E108" s="17">
@@ -3171,10 +3171,10 @@
       <c r="F109" s="18"/>
       <c r="G109" s="19"/>
       <c r="H109" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I109" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J109" s="17">
         <v>20000</v>
@@ -3190,7 +3190,7 @@
         <v>0.92291666666666705</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" s="22"/>
       <c r="E110" s="17">
@@ -3212,7 +3212,7 @@
         <v>0.92291666666666705</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="17">
@@ -3239,7 +3239,7 @@
       <c r="F112" s="18"/>
       <c r="G112" s="19"/>
       <c r="H112" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I112" s="22"/>
       <c r="J112" s="17">
@@ -3256,7 +3256,7 @@
         <v>0.78263888888888899</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" s="22"/>
       <c r="E113" s="17">
@@ -3283,10 +3283,10 @@
       <c r="F114" s="18"/>
       <c r="G114" s="19"/>
       <c r="H114" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I114" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J114" s="17">
         <v>10000</v>
@@ -3302,7 +3302,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" s="22"/>
       <c r="E115" s="17">
@@ -3329,7 +3329,7 @@
       <c r="F116" s="18"/>
       <c r="G116" s="19"/>
       <c r="H116" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I116" s="22"/>
       <c r="J116" s="17">
@@ -3346,7 +3346,7 @@
         <v>0.83402777777777803</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" s="22"/>
       <c r="E117" s="17">
@@ -3373,16 +3373,16 @@
       <c r="F118" s="18"/>
       <c r="G118" s="19"/>
       <c r="H118" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I118" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J118" s="17">
         <v>22000</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L118" s="33"/>
     </row>
@@ -3394,7 +3394,7 @@
         <v>0.688194444444444</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" s="22"/>
       <c r="E119" s="17">
@@ -3421,7 +3421,7 @@
       <c r="F120" s="18"/>
       <c r="G120" s="19"/>
       <c r="H120" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="17">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" s="22"/>
       <c r="E121" s="17">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122" s="22"/>
       <c r="E122" s="17">
@@ -3478,7 +3478,7 @@
         <v>0.83055555555555605</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" s="22"/>
       <c r="E123" s="17">
@@ -3500,7 +3500,7 @@
         <v>0.81527777777777799</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" s="22"/>
       <c r="E124" s="17">
@@ -3527,7 +3527,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="19"/>
       <c r="H125" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I125" s="22"/>
       <c r="J125" s="17">
@@ -3549,10 +3549,10 @@
       <c r="F126" s="18"/>
       <c r="G126" s="19"/>
       <c r="H126" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I126" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J126" s="17">
         <v>2000</v>
@@ -3568,7 +3568,7 @@
         <v>0.79861111111111105</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" s="22"/>
       <c r="E127" s="17">
@@ -3587,10 +3587,10 @@
         <v>45131</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" s="22"/>
       <c r="E128" s="17">
@@ -3612,7 +3612,7 @@
         <v>0.98680555555555605</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" s="22"/>
       <c r="E129" s="17">
@@ -3639,16 +3639,16 @@
       <c r="F130" s="18"/>
       <c r="G130" s="19"/>
       <c r="H130" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I130" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J130" s="17">
         <v>16000</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L130" s="33"/>
     </row>
@@ -3665,7 +3665,7 @@
       <c r="F131" s="18"/>
       <c r="G131" s="19"/>
       <c r="H131" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I131" s="22"/>
       <c r="J131" s="17">
@@ -3682,7 +3682,7 @@
         <v>0.94583333333333297</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" s="22"/>
       <c r="E132" s="17">
@@ -3709,7 +3709,7 @@
       <c r="F133" s="18"/>
       <c r="G133" s="19"/>
       <c r="H133" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I133" s="22"/>
       <c r="J133" s="17">
@@ -3726,7 +3726,7 @@
         <v>0.780555555555556</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" s="22"/>
       <c r="E134" s="17">
@@ -3745,7 +3745,7 @@
         <v>45138</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C135" s="20"/>
       <c r="D135" s="22"/>
@@ -3753,16 +3753,16 @@
       <c r="F135" s="18"/>
       <c r="G135" s="19"/>
       <c r="H135" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I135" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I135" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J135" s="17">
         <v>31000</v>
       </c>
       <c r="K135" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L135" s="33"/>
     </row>
@@ -3774,7 +3774,7 @@
         <v>0.71388888888888902</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" s="22"/>
       <c r="E136" s="17">
@@ -3796,7 +3796,7 @@
         <v>0.83402777777777803</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" s="22"/>
       <c r="E137" s="17">
@@ -3823,7 +3823,7 @@
       <c r="F138" s="18"/>
       <c r="G138" s="19"/>
       <c r="H138" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I138" s="22"/>
       <c r="J138" s="17">
@@ -3845,16 +3845,16 @@
       <c r="F139" s="18"/>
       <c r="G139" s="19"/>
       <c r="H139" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I139" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J139" s="17">
         <v>65000</v>
       </c>
       <c r="K139" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L139" s="33"/>
     </row>
@@ -3871,7 +3871,7 @@
       <c r="F140" s="18"/>
       <c r="G140" s="19"/>
       <c r="H140" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I140" s="22"/>
       <c r="J140" s="17">
@@ -3888,7 +3888,7 @@
         <v>0.76736111111111105</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" s="22"/>
       <c r="E141" s="17">
@@ -3910,7 +3910,7 @@
         <v>0.85624999999999996</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" s="22"/>
       <c r="E142" s="17">
@@ -3932,7 +3932,7 @@
         <v>0.45069444444444401</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" s="22"/>
       <c r="E143" s="17">
@@ -3954,7 +3954,7 @@
         <v>0.89097222222222205</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" s="22"/>
       <c r="E144" s="17">
@@ -3981,7 +3981,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="19"/>
       <c r="H145" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I145" s="22"/>
       <c r="J145" s="17">
@@ -3998,7 +3998,7 @@
         <v>0.62083333333333302</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" s="22"/>
       <c r="E146" s="17">
@@ -4020,7 +4020,7 @@
         <v>0.49097222222222198</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" s="22"/>
       <c r="E147" s="17">
@@ -4042,7 +4042,7 @@
         <v>0.69305555555555598</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" s="22"/>
       <c r="E148" s="17">
@@ -4064,7 +4064,7 @@
         <v>0.36388888888888898</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" s="22"/>
       <c r="E149" s="17">
@@ -4091,16 +4091,16 @@
       <c r="F150" s="18"/>
       <c r="G150" s="19"/>
       <c r="H150" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I150" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J150" s="17">
         <v>17000</v>
       </c>
       <c r="K150" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L150" s="33"/>
     </row>
@@ -4117,7 +4117,7 @@
       <c r="F151" s="18"/>
       <c r="G151" s="19"/>
       <c r="H151" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I151" s="22"/>
       <c r="J151" s="17">
@@ -4134,7 +4134,7 @@
         <v>0.936805555555556</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" s="22"/>
       <c r="E152" s="17">
@@ -4161,7 +4161,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="19"/>
       <c r="H153" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I153" s="22"/>
       <c r="J153" s="17">
@@ -4178,7 +4178,7 @@
         <v>0.94097222222222199</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" s="22"/>
       <c r="E154" s="17">
@@ -4205,7 +4205,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="19"/>
       <c r="H155" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I155" s="22"/>
       <c r="J155" s="17">
@@ -4222,7 +4222,7 @@
         <v>0.91458333333333297</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" s="22"/>
       <c r="E156" s="17">
@@ -4244,7 +4244,7 @@
         <v>0.88541666666666696</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" s="22"/>
       <c r="E157" s="17">
@@ -4263,7 +4263,7 @@
         <v>45174</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C158" s="20"/>
       <c r="D158" s="22"/>
@@ -4271,16 +4271,16 @@
       <c r="F158" s="18"/>
       <c r="G158" s="19"/>
       <c r="H158" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I158" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J158" s="17">
         <v>55000</v>
       </c>
       <c r="K158" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L158" s="33"/>
     </row>
@@ -4292,7 +4292,7 @@
         <v>0.53125</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159" s="22"/>
       <c r="E159" s="17">
@@ -4311,7 +4311,7 @@
         <v>45176</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C160" s="20"/>
       <c r="D160" s="22"/>
@@ -4319,16 +4319,16 @@
       <c r="F160" s="18"/>
       <c r="G160" s="19"/>
       <c r="H160" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I160" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J160" s="17">
         <v>67500</v>
       </c>
       <c r="K160" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L160" s="33"/>
     </row>
@@ -4345,7 +4345,7 @@
       <c r="F161" s="18"/>
       <c r="G161" s="19"/>
       <c r="H161" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I161" s="22"/>
       <c r="J161" s="17">
@@ -4362,7 +4362,7 @@
         <v>0.96527777777777801</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D162" s="22"/>
       <c r="E162" s="17">
@@ -4384,7 +4384,7 @@
         <v>0.25</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D163" s="22"/>
       <c r="E163" s="17">
@@ -4406,7 +4406,7 @@
         <v>0.86180555555555605</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D164" s="22"/>
       <c r="E164" s="17">
@@ -4428,7 +4428,7 @@
         <v>0.86180555555555605</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D165" s="22"/>
       <c r="E165" s="17">
@@ -4455,10 +4455,10 @@
       <c r="F166" s="18"/>
       <c r="G166" s="19"/>
       <c r="H166" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I166" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J166" s="17">
         <v>8800</v>
@@ -4479,7 +4479,7 @@
       <c r="F167" s="18"/>
       <c r="G167" s="19"/>
       <c r="H167" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I167" s="22"/>
       <c r="J167" s="17">
@@ -4496,7 +4496,7 @@
         <v>0.66319444444444398</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D168" s="22"/>
       <c r="E168" s="17">
@@ -4518,7 +4518,7 @@
         <v>0.94236111111111098</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D169" s="22"/>
       <c r="E169" s="17">
@@ -4545,7 +4545,7 @@
       <c r="F170" s="18"/>
       <c r="G170" s="19"/>
       <c r="H170" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I170" s="22"/>
       <c r="J170" s="17">
@@ -4562,7 +4562,7 @@
         <v>0.563194444444444</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D171" s="22"/>
       <c r="E171" s="17">
@@ -4589,10 +4589,10 @@
       <c r="F172" s="18"/>
       <c r="G172" s="19"/>
       <c r="H172" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I172" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J172" s="17">
         <v>5052</v>
@@ -4608,7 +4608,7 @@
         <v>0.77847222222222201</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D173" s="22"/>
       <c r="E173" s="17">
@@ -4635,7 +4635,7 @@
       <c r="F174" s="18"/>
       <c r="G174" s="19"/>
       <c r="H174" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I174" s="22"/>
       <c r="J174" s="17">
@@ -4652,7 +4652,7 @@
         <v>0.62361111111111101</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D175" s="22"/>
       <c r="E175" s="17">
@@ -4674,7 +4674,7 @@
         <v>0.85</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D176" s="22"/>
       <c r="E176" s="17">
@@ -4696,7 +4696,7 @@
         <v>0.91736111111111096</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D177" s="22"/>
       <c r="E177" s="17">
@@ -4723,7 +4723,7 @@
       <c r="F178" s="18"/>
       <c r="G178" s="19"/>
       <c r="H178" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I178" s="22"/>
       <c r="J178" s="17">
@@ -4745,7 +4745,7 @@
       <c r="F179" s="18"/>
       <c r="G179" s="19"/>
       <c r="H179" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I179" s="22"/>
       <c r="J179" s="17">
@@ -4762,7 +4762,7 @@
         <v>0.68125000000000002</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D180" s="22"/>
       <c r="E180" s="17">
@@ -4784,7 +4784,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D181" s="22"/>
       <c r="E181" s="17">
@@ -4806,7 +4806,7 @@
         <v>0.96319444444444402</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D182" s="22"/>
       <c r="E182" s="17">
@@ -4833,7 +4833,7 @@
       <c r="F183" s="18"/>
       <c r="G183" s="19"/>
       <c r="H183" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I183" s="22"/>
       <c r="J183" s="17">
@@ -4855,10 +4855,10 @@
       <c r="F184" s="18"/>
       <c r="G184" s="19"/>
       <c r="H184" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I184" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J184" s="17">
         <v>1000</v>
@@ -4874,7 +4874,7 @@
         <v>0.89375000000000004</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D185" s="22"/>
       <c r="E185" s="17">
@@ -4896,7 +4896,7 @@
         <v>0.60347222222222197</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D186" s="22"/>
       <c r="E186" s="17">
@@ -4918,7 +4918,7 @@
         <v>0.86597222222222203</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D187" s="22"/>
       <c r="E187" s="17">
@@ -4945,16 +4945,16 @@
       <c r="F188" s="18"/>
       <c r="G188" s="19"/>
       <c r="H188" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I188" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I188" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J188" s="17">
         <v>30000</v>
       </c>
       <c r="K188" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L188" s="33"/>
     </row>
@@ -4966,7 +4966,7 @@
         <v>0.76736111111111105</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D189" s="22"/>
       <c r="E189" s="17">
@@ -4988,7 +4988,7 @@
         <v>0.84027777777777801</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D190" s="22"/>
       <c r="E190" s="17">
@@ -5010,7 +5010,7 @@
         <v>0.92430555555555605</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D191" s="22"/>
       <c r="E191" s="17">
@@ -5037,7 +5037,7 @@
       <c r="F192" s="18"/>
       <c r="G192" s="19"/>
       <c r="H192" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I192" s="22"/>
       <c r="J192" s="17">
@@ -5059,10 +5059,10 @@
       <c r="F193" s="18"/>
       <c r="G193" s="19"/>
       <c r="H193" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I193" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J193" s="17">
         <v>1200</v>
@@ -5078,7 +5078,7 @@
         <v>0.85763888888888895</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D194" s="22"/>
       <c r="E194" s="17">
@@ -5100,7 +5100,7 @@
         <v>0.91736111111111096</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D195" s="22"/>
       <c r="E195" s="17">
@@ -5122,7 +5122,7 @@
         <v>0.72152777777777799</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D196" s="22"/>
       <c r="E196" s="17">
@@ -5149,10 +5149,10 @@
       <c r="F197" s="18"/>
       <c r="G197" s="19"/>
       <c r="H197" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I197" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J197" s="17">
         <v>4116</v>
@@ -5168,7 +5168,7 @@
         <v>0.94722222222222197</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D198" s="22"/>
       <c r="E198" s="17">
@@ -5195,7 +5195,7 @@
       <c r="F199" s="18"/>
       <c r="G199" s="19"/>
       <c r="H199" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I199" s="22"/>
       <c r="J199" s="17">
@@ -5217,10 +5217,10 @@
       <c r="F200" s="18"/>
       <c r="G200" s="19"/>
       <c r="H200" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I200" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J200" s="17">
         <v>2116</v>
@@ -5236,7 +5236,7 @@
         <v>0.85555555555555596</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D201" s="22"/>
       <c r="E201" s="17">
@@ -5263,7 +5263,7 @@
       <c r="F202" s="18"/>
       <c r="G202" s="19"/>
       <c r="H202" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I202" s="22"/>
       <c r="J202" s="17">
@@ -5280,7 +5280,7 @@
         <v>0.87638888888888899</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D203" s="22"/>
       <c r="E203" s="17">
@@ -5307,10 +5307,10 @@
       <c r="F204" s="18"/>
       <c r="G204" s="19"/>
       <c r="H204" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I204" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J204" s="17">
         <v>2600</v>
@@ -5331,16 +5331,16 @@
       <c r="F205" s="18"/>
       <c r="G205" s="19"/>
       <c r="H205" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I205" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I205" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J205" s="17">
         <v>30000</v>
       </c>
       <c r="K205" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L205" s="33"/>
     </row>
@@ -5357,10 +5357,10 @@
       <c r="F206" s="18"/>
       <c r="G206" s="19"/>
       <c r="H206" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I206" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J206" s="17">
         <v>5000</v>
@@ -5376,7 +5376,7 @@
         <v>0.80416666666666703</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D207" s="22"/>
       <c r="E207" s="17">
@@ -5398,7 +5398,7 @@
         <v>0.91319444444444398</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D208" s="22"/>
       <c r="E208" s="17">
@@ -5425,7 +5425,7 @@
       <c r="F209" s="18"/>
       <c r="G209" s="19"/>
       <c r="H209" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I209" s="22"/>
       <c r="J209" s="17">
@@ -5442,7 +5442,7 @@
         <v>0.50347222222222199</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D210" s="22"/>
       <c r="E210" s="17">
@@ -5464,7 +5464,7 @@
         <v>0.69097222222222199</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D211" s="22"/>
       <c r="E211" s="17">
@@ -5486,7 +5486,7 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D212" s="22"/>
       <c r="E212" s="17">
@@ -5513,16 +5513,16 @@
       <c r="F213" s="18"/>
       <c r="G213" s="19"/>
       <c r="H213" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I213" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I213" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J213" s="17">
         <v>33500</v>
       </c>
       <c r="K213" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L213" s="33"/>
     </row>
@@ -5534,7 +5534,7 @@
         <v>0.68333333333333302</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D214" s="22"/>
       <c r="E214" s="17">
@@ -5556,7 +5556,7 @@
         <v>0.73263888888888895</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D215" s="22"/>
       <c r="E215" s="17">
@@ -5583,10 +5583,10 @@
       <c r="F216" s="18"/>
       <c r="G216" s="19"/>
       <c r="H216" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I216" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J216" s="17">
         <v>3000</v>
@@ -5602,7 +5602,7 @@
         <v>0.72638888888888897</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D217" s="22"/>
       <c r="E217" s="17">
@@ -5629,10 +5629,10 @@
       <c r="F218" s="18"/>
       <c r="G218" s="19"/>
       <c r="H218" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I218" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J218" s="17">
         <v>3366</v>
@@ -5648,7 +5648,7 @@
         <v>0.92222222222222205</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D219" s="22"/>
       <c r="E219" s="17">
@@ -5675,10 +5675,10 @@
       <c r="F220" s="18"/>
       <c r="G220" s="19"/>
       <c r="H220" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I220" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I220" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J220" s="17">
         <v>7600</v>
@@ -5694,7 +5694,7 @@
         <v>0.655555555555556</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D221" s="22"/>
       <c r="E221" s="17">
@@ -5716,7 +5716,7 @@
         <v>0.77708333333333302</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D222" s="22"/>
       <c r="E222" s="17">
@@ -5743,10 +5743,10 @@
       <c r="F223" s="18"/>
       <c r="G223" s="19"/>
       <c r="H223" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I223" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J223" s="17">
         <v>5500</v>
@@ -5762,7 +5762,7 @@
         <v>0.65138888888888902</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D224" s="22"/>
       <c r="E224" s="17">
@@ -5789,7 +5789,7 @@
       <c r="F225" s="18"/>
       <c r="G225" s="19"/>
       <c r="H225" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I225" s="22"/>
       <c r="J225" s="17">
@@ -5811,16 +5811,16 @@
       <c r="F226" s="18"/>
       <c r="G226" s="19"/>
       <c r="H226" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I226" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="I226" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="J226" s="17">
         <v>25800</v>
       </c>
       <c r="K226" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L226" s="33"/>
     </row>
@@ -5832,7 +5832,7 @@
         <v>0.99097222222222203</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D227" s="22"/>
       <c r="E227" s="17">
@@ -5854,7 +5854,7 @@
         <v>0.968055555555556</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D228" s="22"/>
       <c r="E228" s="17">
@@ -5876,7 +5876,7 @@
         <v>0.81388888888888899</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D229" s="22"/>
       <c r="E229" s="17">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B230" s="14"/>
       <c r="C230" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D230" s="22"/>
       <c r="E230" s="17">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B231" s="13"/>
       <c r="C231" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D231" s="22"/>
       <c r="E231" s="17">
@@ -5938,7 +5938,7 @@
         <v>0.82083333333333297</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D232" s="22"/>
       <c r="E232" s="17">
@@ -5960,7 +5960,7 @@
         <v>0.98611111111111105</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D233" s="22"/>
       <c r="E233" s="17">
@@ -5987,10 +5987,10 @@
       <c r="F234" s="18"/>
       <c r="G234" s="19"/>
       <c r="H234" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I234" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I234" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J234" s="17">
         <v>5200</v>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D235" s="22"/>
       <c r="E235" s="17">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B236" s="13"/>
       <c r="C236" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D236" s="22"/>
       <c r="E236" s="17">
@@ -6046,7 +6046,7 @@
         <v>0.89930555555555602</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D237" s="22"/>
       <c r="E237" s="17">
@@ -6073,10 +6073,10 @@
       <c r="F238" s="18"/>
       <c r="G238" s="19"/>
       <c r="H238" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I238" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I238" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J238" s="17">
         <v>18588</v>
@@ -6092,7 +6092,7 @@
         <v>0.94444444444444398</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D239" s="22"/>
       <c r="E239" s="17">
@@ -6119,10 +6119,10 @@
       <c r="F240" s="18"/>
       <c r="G240" s="19"/>
       <c r="H240" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I240" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I240" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J240" s="17">
         <v>8000</v>
@@ -6143,7 +6143,7 @@
       <c r="F241" s="18"/>
       <c r="G241" s="19"/>
       <c r="H241" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I241" s="22"/>
       <c r="J241" s="17">
@@ -6165,7 +6165,7 @@
       <c r="F242" s="18"/>
       <c r="G242" s="19"/>
       <c r="H242" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I242" s="22"/>
       <c r="J242" s="17">
@@ -6182,7 +6182,7 @@
         <v>0.44097222222222199</v>
       </c>
       <c r="C243" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D243" s="22"/>
       <c r="E243" s="17">
@@ -6204,7 +6204,7 @@
         <v>0.44097222222222199</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D244" s="22"/>
       <c r="E244" s="17">
@@ -6226,7 +6226,7 @@
         <v>0.44097222222222199</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D245" s="22"/>
       <c r="E245" s="17">
@@ -6253,10 +6253,10 @@
       <c r="F246" s="39"/>
       <c r="G246" s="34"/>
       <c r="H246" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" s="45" t="s">
         <v>14</v>
-      </c>
-      <c r="I246" s="45" t="s">
-        <v>15</v>
       </c>
       <c r="J246" s="17">
         <v>2000</v>
@@ -6277,10 +6277,10 @@
       <c r="F247" s="18"/>
       <c r="G247" s="19"/>
       <c r="H247" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I247" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J247" s="17">
         <v>3000</v>
@@ -6301,10 +6301,10 @@
       <c r="F248" s="18"/>
       <c r="G248" s="19"/>
       <c r="H248" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I248" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I248" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J248" s="17">
         <v>3000</v>
@@ -6325,7 +6325,7 @@
       <c r="F249" s="18"/>
       <c r="G249" s="19"/>
       <c r="H249" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I249" s="22"/>
       <c r="J249" s="17">
@@ -6347,10 +6347,10 @@
       <c r="F250" s="18"/>
       <c r="G250" s="19"/>
       <c r="H250" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I250" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I250" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J250" s="17">
         <v>1000</v>
@@ -6371,10 +6371,10 @@
       <c r="F251" s="18"/>
       <c r="G251" s="19"/>
       <c r="H251" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I251" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="I251" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="J251" s="17">
         <v>500</v>
